--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sele-Cd44.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sele-Cd44.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="H2">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="I2">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="J2">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N2">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q2">
-        <v>124.3259282966608</v>
+        <v>1551.785659143608</v>
       </c>
       <c r="R2">
-        <v>124.3259282966608</v>
+        <v>13966.07093229247</v>
       </c>
       <c r="S2">
-        <v>0.08859367167754914</v>
+        <v>0.3278435447156943</v>
       </c>
       <c r="T2">
-        <v>0.08859367167754914</v>
+        <v>0.3278435447156943</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="H3">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="I3">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="J3">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N3">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q3">
-        <v>283.9974675423636</v>
+        <v>759.7268452153542</v>
       </c>
       <c r="R3">
-        <v>283.9974675423636</v>
+        <v>6837.541606938187</v>
       </c>
       <c r="S3">
-        <v>0.2023743457331525</v>
+        <v>0.1605064078814401</v>
       </c>
       <c r="T3">
-        <v>0.2023743457331525</v>
+        <v>0.1605064078814401</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="H4">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="I4">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="J4">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N4">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q4">
-        <v>335.7040080465748</v>
+        <v>1110.914544685897</v>
       </c>
       <c r="R4">
-        <v>335.7040080465748</v>
+        <v>9998.230902173071</v>
       </c>
       <c r="S4">
-        <v>0.2392200169119055</v>
+        <v>0.2347013326615238</v>
       </c>
       <c r="T4">
-        <v>0.2392200169119055</v>
+        <v>0.2347013326615238</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="H5">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="I5">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="J5">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N5">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q5">
-        <v>136.8046151206742</v>
+        <v>374.477781423708</v>
       </c>
       <c r="R5">
-        <v>136.8046151206742</v>
+        <v>3370.300032813372</v>
       </c>
       <c r="S5">
-        <v>0.09748588506055023</v>
+        <v>0.07911538720300536</v>
       </c>
       <c r="T5">
-        <v>0.09748588506055023</v>
+        <v>0.07911538720300534</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="H6">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="I6">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="J6">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N6">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q6">
-        <v>73.7481424228003</v>
+        <v>382.7071494164103</v>
       </c>
       <c r="R6">
-        <v>73.7481424228003</v>
+        <v>3444.364344747693</v>
       </c>
       <c r="S6">
-        <v>0.05255234210714664</v>
+        <v>0.0808539940509294</v>
       </c>
       <c r="T6">
-        <v>0.05255234210714664</v>
+        <v>0.0808539940509294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="H7">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="I7">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="J7">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N7">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q7">
-        <v>168.4627331641758</v>
+        <v>187.3666595346357</v>
       </c>
       <c r="R7">
-        <v>168.4627331641758</v>
+        <v>1686.299935811721</v>
       </c>
       <c r="S7">
-        <v>0.1200452092039631</v>
+        <v>0.03958468713860497</v>
       </c>
       <c r="T7">
-        <v>0.1200452092039631</v>
+        <v>0.03958468713860496</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="H8">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="I8">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="J8">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N8">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q8">
-        <v>199.1342219319559</v>
+        <v>273.97787583409</v>
       </c>
       <c r="R8">
-        <v>199.1342219319559</v>
+        <v>2465.80088250681</v>
       </c>
       <c r="S8">
-        <v>0.1419014691409124</v>
+        <v>0.05788291537421148</v>
       </c>
       <c r="T8">
-        <v>0.1419014691409124</v>
+        <v>0.05788291537421147</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="H9">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="I9">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="J9">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N9">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q9">
-        <v>81.15029888167614</v>
+        <v>92.35510291256401</v>
       </c>
       <c r="R9">
-        <v>81.15029888167614</v>
+        <v>831.1959262130761</v>
       </c>
       <c r="S9">
-        <v>0.05782706016482077</v>
+        <v>0.01951173097459054</v>
       </c>
       <c r="T9">
-        <v>0.05782706016482077</v>
+        <v>0.01951173097459053</v>
       </c>
     </row>
   </sheetData>
